--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_17_Budget.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_17_Budget.xlsx
@@ -5,13 +5,14 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="1" r:id="Rbe603ae67daa46e7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="1" r:id="R4ee7da04b97244d4"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="TotalIncome">'Budget'!$B$6:$B$6</x:definedName>
     <x:definedName name="TotalExpenses">'Budget'!$B$13:$B$13</x:definedName>
     <x:definedName name="NetSavings">'Budget'!$B$15:$B$15</x:definedName>
   </x:definedNames>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_17_Budget.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_17_Budget.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="1" r:id="R4ee7da04b97244d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="1" r:id="R7f34afbf8a0d4e6a"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="TotalIncome">'Budget'!$B$6:$B$6</x:definedName>
